--- a/uploads/Student Upload.xlsx
+++ b/uploads/Student Upload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://densotengroup-my.sharepoint.com/personal/jasper_garcia_denso-ten_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\csselmerv2\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{3459C203-46E7-4E98-90CF-703174B9CD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC85E4C8-7E7C-4802-8DE7-41B1BE994CC3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F408E12-CB39-4384-998A-3650A3370360}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1140" windowWidth="21600" windowHeight="11220" xr2:uid="{A52EEB49-0251-47E9-A3F3-5344218FFD03}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Student Number</t>
   </si>
@@ -57,69 +46,6 @@
   </si>
   <si>
     <t>Year Level</t>
-  </si>
-  <si>
-    <t>Jasper</t>
-  </si>
-  <si>
-    <t>Garcia</t>
-  </si>
-  <si>
-    <t>09102940192</t>
-  </si>
-  <si>
-    <t>asdasdas@test.com</t>
-  </si>
-  <si>
-    <t>Mercados</t>
-  </si>
-  <si>
-    <t>1234-0001</t>
-  </si>
-  <si>
-    <t>1234-0002</t>
-  </si>
-  <si>
-    <t>1234-0003</t>
-  </si>
-  <si>
-    <t>1234-0004</t>
-  </si>
-  <si>
-    <t>1234-0005</t>
-  </si>
-  <si>
-    <t>1234-0006</t>
-  </si>
-  <si>
-    <t>1234-0007</t>
-  </si>
-  <si>
-    <t>1234-0008</t>
-  </si>
-  <si>
-    <t>1234-0009</t>
-  </si>
-  <si>
-    <t>1234-0010</t>
-  </si>
-  <si>
-    <t>1234-0011</t>
-  </si>
-  <si>
-    <t>1234-0012</t>
-  </si>
-  <si>
-    <t>1234-0013</t>
-  </si>
-  <si>
-    <t>Mercado</t>
-  </si>
-  <si>
-    <t>Mercadod</t>
-  </si>
-  <si>
-    <t>Mercadof</t>
   </si>
 </sst>
 </file>
@@ -565,18 +491,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FBD5AB-B7B3-4921-BB81-3E183666059E}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="17.21875" customWidth="1"/>
+    <col min="1" max="7" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,322 +525,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{7F592304-6C0F-4B18-9D55-F36B59009B92}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{4E18B4D1-A1E3-453A-B75F-DC0CA3B4098E}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{28D546ED-BA5A-42AB-A115-A80667B35B87}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{E956BBBB-6713-4D37-9BF2-05F23A60EA7F}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{A062A1FD-1151-40A2-8618-E04A6A814DF2}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{553471A7-3A79-4D9F-A464-58EC3C38D42E}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{F1B0B238-EB99-45E0-8F7A-DE048E52F182}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{6C4A1D44-ED91-4430-BF3E-E9C18ECC3AC5}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{CE160B3D-9695-44EE-AA72-4A06766B86E6}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{2C9033DB-7108-4E08-A66C-3D708E3332C7}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{F186D65D-6F00-490F-B859-74411C640EA0}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{8D75FA6B-069A-4521-BB3F-8AB1A6D37BC0}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{D55F68D4-38AB-4153-9693-DAF0C52F2E68}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
